--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Column Name</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Table Name</t>
+  </si>
+  <si>
+    <t>ghj</t>
+  </si>
+  <si>
+    <t>sdsdd</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +428,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +474,9 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -478,7 +486,9 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>

--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Column Name</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Table Name</t>
   </si>
   <si>
-    <t>ghj</t>
-  </si>
-  <si>
-    <t>sdsdd</t>
+    <t>Execution_Dte</t>
+  </si>
+  <si>
+    <t>Created_By</t>
+  </si>
+  <si>
+    <t>Updated_By</t>
+  </si>
+  <si>
+    <t>Modified_dte</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +434,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +480,7 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -487,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -498,7 +502,9 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -508,7 +514,9 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -518,7 +526,9 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>

--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="60">
   <si>
     <t>Column Name</t>
   </si>
@@ -34,19 +34,166 @@
     <t>Sr.No</t>
   </si>
   <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>Execution_Dte</t>
-  </si>
-  <si>
     <t>Created_By</t>
   </si>
   <si>
     <t>Updated_By</t>
   </si>
   <si>
-    <t>Modified_dte</t>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Customer_ID</t>
+  </si>
+  <si>
+    <t>Modified_By</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Contact_No</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar2(25)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sr.no</t>
+  </si>
+  <si>
+    <t>column Name</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>Item_Id</t>
+  </si>
+  <si>
+    <t>Item_Name</t>
+  </si>
+  <si>
+    <t>Item_Category</t>
+  </si>
+  <si>
+    <t>Item_Company</t>
+  </si>
+  <si>
+    <t>Item_Mdel</t>
+  </si>
+  <si>
+    <t>Execution_Date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category_Id</t>
+  </si>
+  <si>
+    <t>Category_Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Company_Id</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model_Id</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stock_Id</t>
+  </si>
+  <si>
+    <t>Item_Quantity</t>
+  </si>
+  <si>
+    <t>Item_Quantity_InStock</t>
+  </si>
+  <si>
+    <t>Item_UnitPrice</t>
+  </si>
+  <si>
+    <t>Item_Purchaseprice</t>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>Invoice_Main</t>
+  </si>
+  <si>
+    <t>Invoice_Id</t>
+  </si>
+  <si>
+    <t>Invoice_Ref_No</t>
+  </si>
+  <si>
+    <t>Invoice_Amount</t>
+  </si>
+  <si>
+    <t>Invoice_Status</t>
+  </si>
+  <si>
+    <t>Invoice_Date</t>
+  </si>
+  <si>
+    <t>Invoice_Line_Item</t>
+  </si>
+  <si>
+    <t>Invoice_Line_Item Id</t>
+  </si>
+  <si>
+    <t>Unit_Price</t>
+  </si>
+  <si>
+    <t>Invoice_Setteled_Amount</t>
+  </si>
+  <si>
+    <t>Item_Reorder</t>
+  </si>
+  <si>
+    <t>amount(19,4)</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -70,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,15 +260,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +310,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="A2:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,103 +642,1433 @@
     <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="6">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="6">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="6">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="6">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="G49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="10">
+        <v>4</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="10">
+        <v>3</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="H59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
+        <v>6</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G72" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="3">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="10">
+        <v>4</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <v>5</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="6">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="6">
+        <v>7</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="D80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="6">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="6">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="6">
+        <v>11</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>3</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="10">
+        <v>4</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F95" s="6">
+        <v>5</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F96" s="6">
+        <v>6</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F97" s="6">
+        <v>7</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F98" s="6">
+        <v>8</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F99" s="12">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G99" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E100" s="3"/>
+      <c r="F100" s="6">
+        <v>10</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E105" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="3">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E110" s="10">
+        <v>4</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F111" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E112" s="6">
+        <v>6</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113" s="6">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="6">
+        <v>8</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="G114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="6">
+        <v>9</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F123" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F124" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F126" s="3">
+        <v>2</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F127" s="3">
+        <v>3</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F128" s="10">
+        <v>4</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F129" s="6">
+        <v>5</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F130" s="6">
+        <v>6</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F131" s="6">
+        <v>7</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F132" s="6">
+        <v>8</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F133" s="6">
+        <v>9</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E138" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E141" s="3">
+        <v>3</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E142" s="6">
+        <v>6</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E143" s="6">
+        <v>7</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E144" s="6">
+        <v>8</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E145" s="6">
+        <v>9</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="E138:I138"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="D37:H37"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="94">
   <si>
     <t>Column Name</t>
   </si>
@@ -283,7 +283,19 @@
     <t>FK(Item_Category: Item_Category_ID)</t>
   </si>
   <si>
-    <t>FK(Company:Item_Company_ID)</t>
+    <t>FK(Item_Company:Item_Company_ID)</t>
+  </si>
+  <si>
+    <t>Item_Model(FK:Item_Category_ID)</t>
+  </si>
+  <si>
+    <t>Item_Model(FK:Item_Company_ID)</t>
+  </si>
+  <si>
+    <t>Item_Model(FK:Item_Model_ID)</t>
+  </si>
+  <si>
+    <t>Item_Model(FK:Item_ID)</t>
   </si>
 </sst>
 </file>
@@ -430,16 +442,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,20 +781,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -978,13 +990,13 @@
         <v>35</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -1079,13 +1091,13 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="J15" s="1">
         <v>4</v>
       </c>
@@ -1279,20 +1291,20 @@
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="J29" s="9" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="J29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
@@ -1398,19 +1410,11 @@
       <c r="G33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
@@ -1585,20 +1589,20 @@
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="J42" s="9" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="J42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
@@ -1937,10 +1941,10 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -1965,12 +1969,12 @@
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="11"/>
       <c r="J57" s="1">
         <v>11</v>
@@ -2062,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="J60" s="1">
         <v>14</v>
@@ -2092,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="J61" s="1">
         <v>15</v>
@@ -2122,7 +2126,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
@@ -2139,15 +2143,15 @@
         <v>35</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
@@ -2364,12 +2368,12 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="11"/>
       <c r="J72" s="1">
         <v>8</v>
@@ -2499,13 +2503,13 @@
       <c r="G78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
@@ -2690,13 +2694,13 @@
       </c>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
@@ -2856,11 +2860,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="J78:N78"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="J2:N2"/>
@@ -2869,6 +2868,11 @@
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="J78:N78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="91">
   <si>
     <t>Column Name</t>
   </si>
@@ -283,19 +283,10 @@
     <t>FK(Item_Category: Item_Category_ID)</t>
   </si>
   <si>
-    <t>FK(Item_Company:Item_Company_ID)</t>
-  </si>
-  <si>
-    <t>Item_Model(FK:Item_Category_ID)</t>
-  </si>
-  <si>
-    <t>Item_Model(FK:Item_Company_ID)</t>
-  </si>
-  <si>
-    <t>Item_Model(FK:Item_Model_ID)</t>
-  </si>
-  <si>
-    <t>Item_Model(FK:Item_ID)</t>
+    <t>FK(Company:Item_Company_ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -448,10 +439,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,7 +540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:G54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,20 +772,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -990,13 +981,13 @@
         <v>35</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -1091,13 +1082,13 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="J15" s="1">
         <v>4</v>
       </c>
@@ -1288,6 +1279,11 @@
       </c>
       <c r="G23" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -1410,11 +1406,19 @@
       <c r="G33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
@@ -1975,7 +1979,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="12"/>
       <c r="J57" s="1">
         <v>11</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="J60" s="1">
         <v>14</v>
@@ -2096,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J61" s="1">
         <v>15</v>
@@ -2126,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
@@ -2143,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>31</v>
@@ -2374,7 +2378,7 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="12"/>
       <c r="J72" s="1">
         <v>8</v>
       </c>
@@ -2694,13 +2698,13 @@
       </c>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
@@ -2860,6 +2864,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="J78:N78"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="J2:N2"/>
@@ -2868,11 +2877,6 @@
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="J78:N78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IMS_Documents/IMS Data Model.xlsx
+++ b/IMS_Documents/IMS Data Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -226,9 +226,6 @@
     <t>Vendor(FK:Vendor_ID)</t>
   </si>
   <si>
-    <t>Vendoe_ID</t>
-  </si>
-  <si>
     <t>Vendor_Name</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Vendor_ID</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,20 +772,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -981,13 +981,13 @@
         <v>35</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -1082,13 +1082,13 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="J15" s="1">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -1397,27 +1397,27 @@
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="1">
         <v>3</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>35</v>
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>41</v>
@@ -1875,16 +1875,16 @@
         <v>9</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="J52" s="1">
         <v>9</v>
@@ -1914,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1936,7 +1936,7 @@
         <v>35</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1979,12 +1979,12 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="11"/>
       <c r="J57" s="1">
         <v>11</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>41</v>
@@ -2014,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>65</v>
@@ -2053,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>37</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>12</v>
@@ -2244,7 +2244,7 @@
         <v>35</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>12</v>
@@ -2378,12 +2378,12 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="12"/>
+      <c r="G72" s="11"/>
       <c r="J72" s="1">
         <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>65</v>
@@ -2413,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>65</v>
@@ -2508,7 +2508,7 @@
         <v>63</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>35</v>
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>36</v>
@@ -2698,13 +2698,13 @@
       </c>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
@@ -2745,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>36</v>
@@ -2864,11 +2864,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="J78:N78"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="J2:N2"/>
@@ -2877,6 +2872,11 @@
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="J78:N78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
